--- a/спецификация.xlsx
+++ b/спецификация.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Датчик давления FSR400</t>
   </si>
@@ -178,6 +178,18 @@
   <si>
     <t xml:space="preserve">Источник питания VERDO PP1106 60 В, 10А, 300 Вт PP110600
 </t>
+  </si>
+  <si>
+    <t>Конденсатор керамический smd 10 мкФ X5R 16В 10% 0805</t>
+  </si>
+  <si>
+    <t>47346-0001, Разъем micro USB-B</t>
+  </si>
+  <si>
+    <t>1437566-3 (FSMSM), Кнопка тактовая h=4.6 мм SMD SPST</t>
+  </si>
+  <si>
+    <t>цена с ндс</t>
   </si>
 </sst>
 </file>
@@ -186,9 +198,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0\ &quot;₽&quot;_-;\-* #,##0.0\ &quot;₽&quot;_-;_-* &quot;-&quot;?\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0\ &quot;₽&quot;_-;\-* #,##0.0\ &quot;₽&quot;_-;_-* &quot;-&quot;?\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +224,43 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -246,28 +288,45 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -549,1023 +608,1792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56:R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="61.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="18" width="5.85546875" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="e">
+        <f>N:N/O:O</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="12">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="13">
         <f>E2/B2</f>
         <v>298.2</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
         <v>1491</v>
       </c>
-      <c r="F2" s="6">
-        <f>(E2/B2)*D2</f>
+      <c r="F2" s="13">
+        <f t="shared" ref="F2:F38" si="0">(E2/B2)*D2</f>
         <v>298.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17">
+        <f>J2/G2</f>
+        <v>357.84000000000003</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <f>E2*1.2</f>
+        <v>1789.2</v>
+      </c>
+      <c r="K2" s="16">
+        <f t="shared" ref="K2:K38" si="1">(J2/G2)*I2</f>
+        <v>357.84000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C35" si="0">E3/B3</f>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:C38" si="2">E3/B3</f>
         <v>156</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="12">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="13">
         <v>156</v>
       </c>
-      <c r="F3" s="6">
-        <f>(E3/B3)*D3</f>
+      <c r="F3" s="13">
+        <f t="shared" si="0"/>
         <v>780</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17">
+        <f>J3/G3</f>
+        <v>187.2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J38" si="3">E3*1.2</f>
+        <v>187.2</v>
+      </c>
+      <c r="K3" s="16">
+        <f t="shared" si="1"/>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="14">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
+      <c r="C4" s="13">
+        <f t="shared" si="2"/>
         <v>201.4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="14">
         <v>5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="15">
         <v>1007</v>
       </c>
-      <c r="F4" s="6">
-        <f>(E4/B4)*D4</f>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" ref="H3:H38" si="4">J4/G4</f>
+        <v>241.67999999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5">
+        <f>E4*1.2</f>
+        <v>1208.3999999999999</v>
+      </c>
+      <c r="K4" s="16">
+        <f t="shared" si="1"/>
+        <v>1208.3999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
+      <c r="C5" s="13">
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="12">
         <v>1.5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="13">
         <v>186</v>
       </c>
-      <c r="F5" s="6">
-        <f>(E5/B5)*D5</f>
+      <c r="F5" s="13">
+        <f t="shared" si="0"/>
         <v>139.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="4"/>
+        <v>111.6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="3"/>
+        <v>223.2</v>
+      </c>
+      <c r="K5" s="16">
+        <f t="shared" si="1"/>
+        <v>167.39999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="12">
         <v>50</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
+      <c r="C6" s="13">
+        <f t="shared" si="2"/>
         <v>3.02</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="12">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="13">
         <v>151</v>
       </c>
-      <c r="F6" s="6">
-        <f>(E6/B6)*D6</f>
+      <c r="F6" s="13">
+        <f t="shared" si="0"/>
         <v>15.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="4"/>
+        <v>3.6239999999999997</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <f>E6*1.2</f>
+        <v>181.2</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="1"/>
+        <v>18.119999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>50</v>
       </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
+      <c r="C7" s="13">
+        <f t="shared" si="2"/>
         <v>2.36</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="12">
         <v>5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="13">
         <v>118</v>
       </c>
-      <c r="F7" s="6">
-        <f>(E7/B7)*D7</f>
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
         <v>11.799999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="4"/>
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>141.6</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="1"/>
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" si="2"/>
         <v>285.95</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
         <v>285.95</v>
       </c>
-      <c r="F8" s="6">
-        <f>(E8/B8)*D8</f>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
         <v>285.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="4"/>
+        <v>343.14</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="3"/>
+        <v>343.14</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" si="1"/>
+        <v>343.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="2"/>
         <v>228.4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="12">
         <v>4</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="13">
         <v>228.4</v>
       </c>
-      <c r="F9" s="6">
-        <f>(E9/B9)*D9</f>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
         <v>913.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="4"/>
+        <v>274.08</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="3"/>
+        <v>274.08</v>
+      </c>
+      <c r="K9" s="16">
+        <f t="shared" si="1"/>
+        <v>1096.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="2"/>
         <v>285.95</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
         <v>285.95</v>
       </c>
-      <c r="F10" s="6">
-        <f>(E10/B10)*D10</f>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
         <v>285.95</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="4"/>
+        <v>343.14</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="3"/>
+        <v>343.14</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="1"/>
+        <v>343.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" si="0"/>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
         <v>150</v>
       </c>
-      <c r="F11" s="6">
-        <f>(E11/B11)*D11</f>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" si="0"/>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
         <v>260</v>
       </c>
-      <c r="F12" s="6">
-        <f>(E12/B12)*D12</f>
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+      <c r="K12" s="16">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <f t="shared" si="0"/>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
         <v>99</v>
       </c>
-      <c r="F13" s="6">
-        <f>(E13/B13)*D13</f>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="4"/>
+        <v>118.8</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
+        <v>118.8</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="1"/>
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" si="0"/>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
         <v>25</v>
       </c>
-      <c r="F14" s="6">
-        <f>(E14/B14)*D14</f>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <f t="shared" si="0"/>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
         <v>200</v>
       </c>
-      <c r="F15" s="6">
-        <f>(E15/B15)*D15</f>
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <f t="shared" si="0"/>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="12">
         <v>2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="13">
         <v>9</v>
       </c>
-      <c r="F16" s="6">
-        <f>(E16/B16)*D16</f>
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="4"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="3"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="K16" s="16">
+        <f t="shared" si="1"/>
+        <v>21.599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <f t="shared" si="0"/>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
         <v>7</v>
       </c>
-      <c r="F17" s="6">
-        <f>(E17/B17)*D17</f>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="4"/>
+        <v>8.4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <f t="shared" si="0"/>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
         <v>3</v>
       </c>
-      <c r="F18" s="6">
-        <f>(E18/B18)*D18</f>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <f t="shared" si="0"/>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
         <v>4</v>
       </c>
-      <c r="F19" s="6">
-        <f>(E19/B19)*D19</f>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="K19" s="16">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
-        <f t="shared" si="0"/>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13">
         <v>12</v>
       </c>
-      <c r="F20" s="6">
-        <f>(E20/B20)*D20</f>
+      <c r="F20" s="13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17">
+        <f t="shared" si="4"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>E20*1.2</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <f t="shared" si="0"/>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
         <v>12</v>
       </c>
-      <c r="F21" s="6">
-        <f>(E21/B21)*D21</f>
+      <c r="F21" s="13">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <f t="shared" si="4"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <f>E21*1.2</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K21" s="16">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <f t="shared" si="0"/>
+      <c r="B22" s="12">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="12">
         <v>2</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="13">
         <v>4</v>
       </c>
-      <c r="F22" s="6">
-        <f>(E22/B22)*D22</f>
+      <c r="F22" s="13">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+      <c r="K23" s="16">
+        <f t="shared" si="1"/>
+        <v>58.800000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
-        <f t="shared" si="0"/>
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="12">
         <v>13</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="13">
         <v>2</v>
       </c>
-      <c r="F23" s="6">
-        <f>(E23/B23)*D23</f>
+      <c r="F24" s="13">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17">
+        <f t="shared" ref="H24:H38" si="5">J24/G24</f>
+        <v>2.4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>13</v>
+      </c>
+      <c r="J24" s="5">
+        <f>E24*1.2</f>
+        <v>2.4</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" si="1"/>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6">
-        <f t="shared" si="0"/>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="12">
         <v>5</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="13">
         <v>6</v>
       </c>
-      <c r="F24" s="6">
-        <f>(E24/B24)*D24</f>
+      <c r="F25" s="13">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="5"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="3"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <f t="shared" si="0"/>
+      <c r="B26" s="12">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="12">
         <v>2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="13">
         <v>3</v>
       </c>
-      <c r="F25" s="6">
-        <f>(E25/B25)*D25</f>
+      <c r="F26" s="13">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="5">
+        <f>E26*1.2</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6">
-        <f t="shared" si="0"/>
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="12">
         <v>4</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="13">
         <v>2</v>
       </c>
-      <c r="F26" s="6">
-        <f>(E26/B26)*D26</f>
+      <c r="F27" s="13">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4</v>
+      </c>
+      <c r="J27" s="5">
+        <f>E27*1.2</f>
+        <v>2.4</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
-        <f t="shared" si="0"/>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="12">
         <v>2</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="13">
         <v>4</v>
       </c>
-      <c r="F27" s="6">
-        <f>(E27/B27)*D27</f>
+      <c r="F28" s="13">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="13">
+        <v>45</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="5">
+        <f>E29*1.2</f>
+        <v>54</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13">
+        <v>140</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <f>E30*1.2</f>
+        <v>168</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <f t="shared" si="0"/>
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
         <v>180</v>
       </c>
-      <c r="F28" s="6">
-        <f>(E28/B28)*D28</f>
+      <c r="F31" s="13">
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <f>E31*1.2</f>
+        <v>216</v>
+      </c>
+      <c r="K31" s="16">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6">
-        <f t="shared" si="0"/>
+      <c r="B32" s="12">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
         <v>140</v>
       </c>
-      <c r="F29" s="6">
-        <f>(E29/B29)*D29</f>
+      <c r="F32" s="13">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
+        <f>E32*1.2</f>
+        <v>168</v>
+      </c>
+      <c r="K32" s="16">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6">
-        <f t="shared" si="0"/>
+      <c r="B33" s="12">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
         <v>43</v>
       </c>
-      <c r="F30" s="6">
-        <f>(E30/B30)*D30</f>
+      <c r="F33" s="13">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
+        <f t="shared" si="5"/>
+        <v>51.6</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="3"/>
+        <v>51.6</v>
+      </c>
+      <c r="K33" s="16">
+        <f t="shared" si="1"/>
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B34" s="12">
         <v>5</v>
       </c>
-      <c r="C31" s="6">
-        <f t="shared" si="0"/>
+      <c r="C34" s="13">
+        <f t="shared" si="2"/>
         <v>197.4</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D34" s="12">
         <v>2</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E34" s="13">
         <v>987</v>
       </c>
-      <c r="F31" s="6">
-        <f>(E31/B31)*D31</f>
+      <c r="F34" s="13">
+        <f t="shared" si="0"/>
         <v>394.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="17">
+        <f t="shared" si="5"/>
+        <v>236.87999999999997</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5">
+        <f>E34*1.2</f>
+        <v>1184.3999999999999</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="1"/>
+        <v>473.75999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <f t="shared" si="0"/>
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13">
         <v>133</v>
       </c>
-      <c r="F32" s="6">
-        <f>(E32/B32)*D32</f>
+      <c r="F35" s="13">
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="5"/>
+        <v>159.6</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="3"/>
+        <v>159.6</v>
+      </c>
+      <c r="K35" s="16">
+        <f t="shared" si="1"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B36" s="12">
         <v>5</v>
       </c>
-      <c r="C33" s="6">
-        <f t="shared" si="0"/>
+      <c r="C36" s="13">
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D36" s="12">
         <v>2</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E36" s="13">
         <v>460</v>
       </c>
-      <c r="F33" s="6">
-        <f>(E33/B33)*D33</f>
+      <c r="F36" s="13">
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="17">
+        <f t="shared" si="5"/>
+        <v>110.4</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+      <c r="J36" s="5">
+        <f>E36*1.2</f>
+        <v>552</v>
+      </c>
+      <c r="K36" s="16">
+        <f t="shared" si="1"/>
+        <v>220.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B37" s="12">
         <v>10</v>
       </c>
-      <c r="C34" s="6">
-        <f t="shared" si="0"/>
+      <c r="C37" s="13">
+        <f t="shared" si="2"/>
         <v>35.9</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D37" s="12">
         <v>5</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E37" s="13">
         <v>359</v>
       </c>
-      <c r="F34" s="6">
-        <f>(E34/B34)*D34</f>
+      <c r="F37" s="13">
+        <f t="shared" si="0"/>
         <v>179.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="G37" s="2">
+        <v>10</v>
+      </c>
+      <c r="H37" s="17">
+        <f t="shared" si="5"/>
+        <v>43.08</v>
+      </c>
+      <c r="I37" s="2">
+        <v>5</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="3"/>
+        <v>430.8</v>
+      </c>
+      <c r="K37" s="16">
+        <f t="shared" si="1"/>
+        <v>215.39999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B38" s="12">
         <v>1000</v>
       </c>
-      <c r="C35" s="6">
-        <f t="shared" si="0"/>
+      <c r="C38" s="13">
+        <f t="shared" si="2"/>
         <v>1.073</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D38" s="12">
         <v>200</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E38" s="13">
         <v>1073</v>
       </c>
-      <c r="F35" s="6">
-        <f>(E35/B35)*D35</f>
+      <c r="F38" s="13">
+        <f t="shared" si="0"/>
         <v>214.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <f>SUM(F2:F35)</f>
-        <v>6082</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="G38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="17">
+        <f t="shared" si="5"/>
+        <v>1.2875999999999999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>200</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="3"/>
+        <v>1287.5999999999999</v>
+      </c>
+      <c r="K38" s="16">
+        <f t="shared" si="1"/>
+        <v>257.52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <f>SUM(F2:F38)</f>
+        <v>6361</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="K39" s="19">
+        <f>SUM(K2:K38)</f>
+        <v>7633.2000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="11">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7">
-        <f>E38/B38</f>
+      <c r="B41" s="8">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <f>E41/B41</f>
         <v>43990</v>
       </c>
-      <c r="D38" s="11">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
         <v>43990</v>
       </c>
-      <c r="F38" s="7">
-        <f>E38/B38*D38</f>
+      <c r="F41" s="6">
+        <f>E41/B41*D41</f>
         <v>43990</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="11">
-        <v>1</v>
-      </c>
-      <c r="C39" s="7">
-        <f t="shared" ref="C39:C46" si="1">E39/B39</f>
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42:C49" si="6">E42/B42</f>
         <v>21863.27</v>
       </c>
-      <c r="D39" s="11">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
         <v>21863.27</v>
       </c>
-      <c r="F39" s="7">
-        <f t="shared" ref="F39:F46" si="2">E39/B39*D39</f>
+      <c r="F42" s="6">
+        <f t="shared" ref="F42:F49" si="7">E42/B42*D42</f>
         <v>21863.27</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="K42" s="19">
+        <f>SUM(K2:K41)</f>
+        <v>15266.400000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="11">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7">
-        <f t="shared" si="1"/>
+      <c r="B43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" si="6"/>
         <v>13566</v>
       </c>
-      <c r="D40" s="11">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
         <v>13566</v>
       </c>
-      <c r="F40" s="7">
-        <f t="shared" si="2"/>
+      <c r="F43" s="6">
+        <f t="shared" si="7"/>
         <v>13566</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="11">
-        <v>1</v>
-      </c>
-      <c r="C41" s="7">
-        <f t="shared" si="1"/>
+      <c r="B44" s="8">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="6"/>
         <v>5554</v>
       </c>
-      <c r="D41" s="11">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
         <v>5554</v>
       </c>
-      <c r="F41" s="7">
-        <f t="shared" si="2"/>
+      <c r="F44" s="6">
+        <f t="shared" si="7"/>
         <v>5554</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="11">
-        <v>1</v>
-      </c>
-      <c r="C42" s="7">
-        <f t="shared" si="1"/>
+      <c r="B45" s="8">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" si="6"/>
         <v>729</v>
       </c>
-      <c r="D42" s="11">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
         <v>729</v>
       </c>
-      <c r="F42" s="7">
-        <f t="shared" si="2"/>
+      <c r="F45" s="6">
+        <f t="shared" si="7"/>
         <v>729</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="11">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7">
-        <f t="shared" si="1"/>
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" si="6"/>
         <v>3398</v>
       </c>
-      <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
         <v>3398</v>
       </c>
-      <c r="F43" s="7">
-        <f t="shared" si="2"/>
+      <c r="F46" s="6">
+        <f t="shared" si="7"/>
         <v>3398</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="11">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7">
-        <f t="shared" si="1"/>
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6">
+        <f t="shared" si="6"/>
         <v>2231</v>
       </c>
-      <c r="D44" s="11">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7">
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
         <v>2231</v>
       </c>
-      <c r="F44" s="7">
-        <f t="shared" si="2"/>
+      <c r="F47" s="6">
+        <f t="shared" si="7"/>
         <v>2231</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="11">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7">
-        <f t="shared" si="1"/>
+      <c r="B48" s="8">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" si="6"/>
         <v>3623</v>
       </c>
-      <c r="D45" s="11">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
         <v>3623</v>
       </c>
-      <c r="F45" s="7">
-        <f t="shared" si="2"/>
+      <c r="F48" s="6">
+        <f t="shared" si="7"/>
         <v>3623</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="11">
-        <v>1</v>
-      </c>
-      <c r="C46" s="7">
-        <f t="shared" si="1"/>
+      <c r="B49" s="8">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6">
+        <f t="shared" si="6"/>
         <v>21650</v>
       </c>
-      <c r="D46" s="11">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
         <v>21650</v>
       </c>
-      <c r="F46" s="7">
-        <f t="shared" si="2"/>
+      <c r="F49" s="6">
+        <f t="shared" si="7"/>
         <v>21650</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <f>SUM(F38:F45)</f>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <f>SUM(F41:F48)</f>
         <v>94954.27</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
